--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_6_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_6_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01265880160337307</v>
+        <v>0.0007820139022649553</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01265880160337307</v>
+        <v>0.0007820139022649553</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>27.87181067485551</v>
+        <v>41.0773617164706</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[6.409194865887308, 49.33442648382372]</t>
+          <t>[17.401006639046997, 64.7537167938942]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01208100577170534</v>
+        <v>0.0010791853051908</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01208100577170534</v>
+        <v>0.0010791853051908</v>
       </c>
       <c r="P2" t="n">
-        <v>1.641552918091964</v>
+        <v>1.515763422452733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 2.6981846814615045]</t>
+          <t>[0.735868549489501, 2.295658295415965]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.003074754031562321</v>
+        <v>0.0003040243337464332</v>
       </c>
       <c r="S2" t="n">
-        <v>0.003074754031562321</v>
+        <v>0.0003040243337464332</v>
       </c>
       <c r="T2" t="n">
-        <v>58.04630710695892</v>
+        <v>54.04821233448838</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.81671804251921, 71.27589617139863]</t>
+          <t>[39.29663702121307, 68.79978764776368]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.155120526481369e-11</v>
+        <v>2.798421272487417e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>2.155120526481369e-11</v>
+        <v>2.798421272487417e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>18.95603603603646</v>
+        <v>19.6594394394399</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.64084084084116</v>
+        <v>16.44338338338377</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.27123123123175</v>
+        <v>22.87549549549604</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000494945666102975</v>
+        <v>0.005752086396564549</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000494945666102975</v>
+        <v>0.005752086396564549</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>41.20418595608341</v>
+        <v>34.86870132241917</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[15.245996237118035, 67.16237567504878]</t>
+          <t>[7.81899796221397, 61.91840468262437]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.002541197723592736</v>
+        <v>0.01268385083173507</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002541197723592736</v>
+        <v>0.01268385083173507</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8993948938205012</v>
+        <v>1.163552834662887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.3207632138800385, 1.478026573760964]</t>
+          <t>[0.30818426431611545, 2.0189214050096576]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.003061376326280563</v>
+        <v>0.008782567571823607</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003061376326280563</v>
+        <v>0.008782567571823607</v>
       </c>
       <c r="T3" t="n">
-        <v>57.4647406427006</v>
+        <v>63.7969829525307</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.807168526904036, 71.12231275849717]</t>
+          <t>[49.071017756519794, 78.5229481485416]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.103118093709782e-11</v>
+        <v>3.10456105268031e-11</v>
       </c>
       <c r="W3" t="n">
-        <v>7.103118093709782e-11</v>
+        <v>3.10456105268031e-11</v>
       </c>
       <c r="X3" t="n">
-        <v>21.98694694694744</v>
+        <v>21.11185185185235</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.6238638638643</v>
+        <v>17.58456456456498</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.35003003003057</v>
+        <v>24.63913913913972</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.143516928485248e-06</v>
+        <v>0.02733594760966118</v>
       </c>
       <c r="I4" t="n">
-        <v>5.143516928485248e-06</v>
+        <v>0.02733594760966118</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>50.00255643595163</v>
+        <v>23.39429861915409</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[27.737478937144004, 72.26763393475926]</t>
+          <t>[1.0008402853600558, 45.78775695294813]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>4.414565541122073e-05</v>
+        <v>0.04098706308458389</v>
       </c>
       <c r="O4" t="n">
-        <v>4.414565541122073e-05</v>
+        <v>0.04098706308458389</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3710790121357324</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.13207897042119043, 0.8742369946926551]</t>
+          <t>[-0.1195000208572683, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1444099767516138</v>
+        <v>0.07333323350246945</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1444099767516138</v>
+        <v>0.07333323350246945</v>
       </c>
       <c r="T4" t="n">
-        <v>54.49847842446786</v>
+        <v>53.42181968690402</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[42.38921791619404, 66.60773893274168]</t>
+          <t>[41.32505998935385, 65.51857938445417]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.027289364685657e-11</v>
+        <v>1.785549486044147e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.027289364685657e-11</v>
+        <v>1.785549486044147e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>24.14454454454508</v>
+        <v>20.90436436436485</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.08968968969018</v>
+        <v>15.40594594594631</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.19939939939997</v>
+        <v>26.4027827827834</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001272225514002079</v>
+        <v>0.006662222926533623</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001272225514002079</v>
+        <v>0.006662222926533623</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.2897179302476</v>
+        <v>36.17825276064104</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[16.217188892088103, 68.36224696840709]</t>
+          <t>[9.401021556532363, 62.955483964749725]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002085004493168174</v>
+        <v>0.00921572154375716</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002085004493168174</v>
+        <v>0.00921572154375716</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1383684452031542</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.9182633181663862, 0.6415264277600778]</t>
+          <t>[-1.0440528138056173, 0.792473822527155]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7225070911252538</v>
+        <v>0.7838844890985095</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7225070911252538</v>
+        <v>0.7838844890985095</v>
       </c>
       <c r="T5" t="n">
-        <v>65.71211469084216</v>
+        <v>53.22762413457428</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.78163225089831, 80.642597130786]</t>
+          <t>[38.24669357881305, 68.2085546903355]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.970690277630638e-11</v>
+        <v>5.981769524154856e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.970690277630638e-11</v>
+        <v>5.981769524154856e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5650850850850979</v>
+        <v>0.5187187187187305</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.619939939939998</v>
+        <v>-3.267927927928006</v>
       </c>
       <c r="Z5" t="n">
-        <v>3.750110110110194</v>
+        <v>4.305365365365467</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>8.611893179466534e-06</v>
+        <v>0.1494641433816739</v>
       </c>
       <c r="I6" t="n">
-        <v>8.611893179466534e-06</v>
+        <v>0.1494641433816739</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>49.95926441680803</v>
+        <v>23.20338036670267</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[25.11038497408518, 74.80814385953089]</t>
+          <t>[-4.360287888647498, 50.76704862205284]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0001999607111864421</v>
+        <v>0.09689147898662642</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0001999607111864421</v>
+        <v>0.09689147898662642</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.6037895790683088</v>
+        <v>-0.01257894956392303</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.0943686120613094, -0.11321054607530812]</t>
+          <t>[-1.616395018964118, 1.591237119836272]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.01699317227880703</v>
+        <v>0.9874662616607934</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01699317227880703</v>
+        <v>0.9874662616607934</v>
       </c>
       <c r="T6" t="n">
-        <v>73.67150627188855</v>
+        <v>66.28589228571191</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[60.69743542100667, 86.64557712277042]</t>
+          <t>[50.22671118692497, 82.34507338449885]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>1.211244438081849e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>6.661338147750939e-15</v>
+        <v>1.211244438081849e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>2.465825825825881</v>
+        <v>0.05187187187187092</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4623423423423532</v>
+        <v>-6.561791791791951</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.469309309309409</v>
+        <v>6.665535535535692</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01858931215445181</v>
+        <v>7.563083680439675e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01858931215445181</v>
+        <v>7.563083680439675e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>28.41079438077711</v>
+        <v>54.40170665746451</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.1865680130940603, 54.63502074846015]</t>
+          <t>[30.09308756881427, 78.71032574611475]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03436827627992556</v>
+        <v>4.64602129783831e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03436827627992556</v>
+        <v>4.64602129783831e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6792632764518469</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.6415529180919641, 0.2830263651882703]</t>
+          <t>[-1.1446844103170015, -0.28931583997023225]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.1620016016951351</v>
+        <v>0.001521660505534594</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1620016016951351</v>
+        <v>0.001521660505534594</v>
       </c>
       <c r="T7" t="n">
-        <v>56.06911535937584</v>
+        <v>59.57867777511596</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.18509296523994, 69.95313775351175]</t>
+          <t>[46.95473729268238, 72.20261825754955]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.203748294959951e-10</v>
+        <v>2.484457084506175e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.203748294959951e-10</v>
+        <v>2.484457084506175e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>2.774054054054115</v>
+        <v>2.95669669669677</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.155855855855883</v>
+        <v>1.193053053053088</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.703963963964114</v>
+        <v>4.720340340340453</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.66000000000057</v>
+        <v>25.91000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.385052983461705e-05</v>
+        <v>4.344789919674685e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>8.385052983461705e-05</v>
+        <v>4.344789919674685e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>42.4204865065789</v>
+        <v>41.68353717081867</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[18.331734302040445, 66.50923871111736]</t>
+          <t>[19.721732440826557, 63.64534190081079]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0009244071783425234</v>
+        <v>0.0004029615002092424</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0009244071783425234</v>
+        <v>0.0004029615002092424</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.4591581494150798, -0.3522105877898465]</t>
+          <t>[-1.8239476867688493, -0.6415264277600778]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.001919785224485882</v>
+        <v>0.0001246363550244656</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001919785224485882</v>
+        <v>0.0001246363550244656</v>
       </c>
       <c r="T8" t="n">
-        <v>62.87944794536094</v>
+        <v>54.91676134383549</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.01898852447596, 75.73990736624592]</t>
+          <t>[42.59429439011565, 67.23922829755533]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>8.393286066166183e-13</v>
+        <v>1.369415691954146e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>8.393286066166183e-13</v>
+        <v>1.369415691954146e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>3.698738738738825</v>
+        <v>5.083443443443564</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.438398398398433</v>
+        <v>2.645465465465527</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.959079079079218</v>
+        <v>7.5214214214216</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.8900000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003323893787537946</v>
+        <v>0.01224896922734453</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003323893787537946</v>
+        <v>0.01224896922734453</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.7791849380809</v>
+        <v>35.40337015207322</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[15.828891766489633, 65.72947810967217]</t>
+          <t>[6.610130536461057, 64.19660976768539]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0019414293774489</v>
+        <v>0.01709416049090784</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0019414293774489</v>
+        <v>0.01709416049090784</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.195000208572694</v>
+        <v>-1.761052938949233</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.8365266363327706, -0.5534737808126167]</t>
+          <t>[-2.8428426014466197, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0005002184546021304</v>
+        <v>0.002015509661379422</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0005002184546021304</v>
+        <v>0.002015509661379422</v>
       </c>
       <c r="T9" t="n">
-        <v>49.96048892241129</v>
+        <v>73.99000680886905</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[36.747646738152305, 63.17333110667028]</t>
+          <t>[57.91883253406456, 90.06118108367355]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.256636128488253e-09</v>
+        <v>5.242473122279989e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.256636128488253e-09</v>
+        <v>5.242473122279989e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>4.543643643643698</v>
+        <v>6.642642642642716</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.104424424424452</v>
+        <v>2.562162162162189</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.982862862862944</v>
+        <v>10.72312312312324</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.8900000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002593963894554574</v>
+        <v>0.01097950806201076</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002593963894554574</v>
+        <v>0.01097950806201076</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>37.63628997304964</v>
+        <v>28.39534786848823</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[14.196223475859796, 61.07635647023949]</t>
+          <t>[5.408960868900017, 51.38173486807645]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.00228967696566551</v>
+        <v>0.01661483099970207</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00228967696566551</v>
+        <v>0.01661483099970207</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.270473905956233</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.402579366709311, -0.7170001251436169]</t>
+          <t>[-2.276789871070081, -0.2641579408423844]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0005382052758053923</v>
+        <v>0.01450573925398402</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0005382052758053923</v>
+        <v>0.01450573925398402</v>
       </c>
       <c r="T10" t="n">
-        <v>61.9871812855523</v>
+        <v>53.00946977660055</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.52857898698066, 76.44578358412393]</t>
+          <t>[40.28933178337502, 65.72960776982609]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.183298152327097e-11</v>
+        <v>9.285239244150034e-11</v>
       </c>
       <c r="W10" t="n">
-        <v>4.183298152327097e-11</v>
+        <v>9.285239244150034e-11</v>
       </c>
       <c r="X10" t="n">
-        <v>5.930650650650726</v>
+        <v>4.792192192192246</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.726186186186223</v>
+        <v>0.9963963963964053</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.13511511511523</v>
+        <v>8.587987987988086</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.8900000000003</v>
+        <v>23.70000000000027</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001688736728226337</v>
+        <v>0.01100957816451686</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001688736728226337</v>
+        <v>0.01100957816451686</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>36.72853929696935</v>
+        <v>34.52115276245787</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[12.02440554556867, 61.432673048370035]</t>
+          <t>[8.285055604297732, 60.757249920618015]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.004456604793418029</v>
+        <v>0.01106401991802541</v>
       </c>
       <c r="O11" t="n">
-        <v>0.004456604793418029</v>
+        <v>0.01106401991802541</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.220158107700541</v>
+        <v>-1.673000292001772</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.9623161319720035, -0.4780000834290776]</t>
+          <t>[-2.7296320553713125, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.001836347493269219</v>
+        <v>0.002599451648451323</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001836347493269219</v>
+        <v>0.002599451648451323</v>
       </c>
       <c r="T11" t="n">
-        <v>61.59554920117648</v>
+        <v>68.74213471362916</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[48.03067790987488, 75.16042049247808]</t>
+          <t>[53.277514222182525, 84.20675520507578]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>7.900124998627689e-12</v>
+        <v>1.476818667356383e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>7.900124998627689e-12</v>
+        <v>1.476818667356383e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>4.63929929929936</v>
+        <v>6.310510510510582</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.817457457457482</v>
+        <v>2.324924924924951</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.461141141141238</v>
+        <v>10.29609609609621</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_6_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_6_sine_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007820139022649553</v>
+        <v>1.691204166820448e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007820139022649553</v>
+        <v>1.691204166820448e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.0773617164706</v>
+        <v>46.23030690888707</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[17.401006639046997, 64.7537167938942]</t>
+          <t>[28.343894711841713, 64.11671910593242]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0010791853051908</v>
+        <v>4.622819049560078e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0010791853051908</v>
+        <v>4.622819049560078e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452733</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 2.295658295415965]</t>
+          <t>[1.1006580868432714, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0003040243337464332</v>
+        <v>7.416098868340271e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0003040243337464332</v>
+        <v>7.416098868340271e-08</v>
       </c>
       <c r="T2" t="n">
-        <v>54.04821233448838</v>
+        <v>58.03410266256927</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[39.29663702121307, 68.79978764776368]</t>
+          <t>[46.66852071234497, 69.39968461279356]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.798421272487417e-09</v>
+        <v>2.144950883575802e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>2.798421272487417e-09</v>
+        <v>2.144950883575802e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>19.6594394394399</v>
+        <v>19.31123123123169</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44338338338377</v>
+        <v>17.23475475475516</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.87549549549604</v>
+        <v>21.38770770770821</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005752086396564549</v>
+        <v>0.000381854431880102</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005752086396564549</v>
+        <v>0.000381854431880102</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>34.86870132241917</v>
+        <v>39.64587408560831</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[7.81899796221397, 61.91840468262437]</t>
+          <t>[14.549382545944468, 64.74236562527216]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.01268385083173507</v>
+        <v>0.002652950275743526</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01268385083173507</v>
+        <v>0.002652950275743526</v>
       </c>
       <c r="P3" t="n">
-        <v>1.163552834662887</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.30818426431611545, 2.0189214050096576]</t>
+          <t>[0.45913165908319264, 1.7673424137311962]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.008782567571823607</v>
+        <v>0.001311191040964665</v>
       </c>
       <c r="S3" t="n">
-        <v>0.008782567571823607</v>
+        <v>0.001311191040964665</v>
       </c>
       <c r="T3" t="n">
-        <v>63.7969829525307</v>
+        <v>58.99631544137603</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.071017756519794, 78.5229481485416]</t>
+          <t>[45.916622867228185, 72.07600801552388]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.10456105268031e-11</v>
+        <v>9.625411578895182e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>3.10456105268031e-11</v>
+        <v>9.625411578895182e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>21.11185185185235</v>
+        <v>21.3357957957963</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.58456456456498</v>
+        <v>18.63637637637682</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.63913913913972</v>
+        <v>24.03521521521579</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02733594760966118</v>
+        <v>0.05023426989528845</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02733594760966118</v>
+        <v>0.05023426989528845</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>23.39429861915409</v>
+        <v>28.2980929635245</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[1.0008402853600558, 45.78775695294813]</t>
+          <t>[-0.6948476273049664, 57.291033554353966]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.04098706308458389</v>
+        <v>0.0555063211396194</v>
       </c>
       <c r="O4" t="n">
-        <v>0.04098706308458389</v>
+        <v>0.0555063211396194</v>
       </c>
       <c r="P4" t="n">
-        <v>1.213868632918579</v>
+        <v>0.6478159025420398</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.1195000208572683, 2.5472372866944273]</t>
+          <t>[-1.522052897234694, 2.8176847023187737]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.07333323350246945</v>
+        <v>0.5506494812978753</v>
       </c>
       <c r="S4" t="n">
-        <v>0.07333323350246945</v>
+        <v>0.5506494812978753</v>
       </c>
       <c r="T4" t="n">
-        <v>53.42181968690402</v>
+        <v>64.42687172677502</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.32505998935385, 65.51857938445417]</t>
+          <t>[48.96600433801885, 79.88773911553119]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.785549486044147e-11</v>
+        <v>9.302181247505814e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>1.785549486044147e-11</v>
+        <v>9.302181247505814e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>20.90436436436485</v>
+        <v>23.25653653653708</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.40594594594631</v>
+        <v>14.30173173173207</v>
       </c>
       <c r="Z4" t="n">
-        <v>26.4027827827834</v>
+        <v>32.2113413413421</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006662222926533623</v>
+        <v>0.1289798296881788</v>
       </c>
       <c r="I5" t="n">
-        <v>0.006662222926533623</v>
+        <v>0.1289798296881788</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>36.17825276064104</v>
+        <v>23.85546007722514</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[9.401021556532363, 62.955483964749725]</t>
+          <t>[-6.123080236273594, 53.834000390723865]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00921572154375716</v>
+        <v>0.1159924209629037</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00921572154375716</v>
+        <v>0.1159924209629037</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1257894956392311</v>
+        <v>0.748447499053424</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.0440528138056173, 0.792473822527155]</t>
+          <t>[-2.3774214675814647, 3.8743164656883127]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.7838844890985095</v>
+        <v>0.6319657752226471</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7838844890985095</v>
+        <v>0.6319657752226471</v>
       </c>
       <c r="T5" t="n">
-        <v>53.22762413457428</v>
+        <v>57.83321404448094</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[38.24669357881305, 68.2085546903355]</t>
+          <t>[41.806505433530276, 73.8599226554316]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.981769524154856e-09</v>
+        <v>4.087452598611208e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>5.981769524154856e-09</v>
+        <v>4.087452598611208e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>0.5187187187187305</v>
+        <v>22.84124124124178</v>
       </c>
       <c r="Y5" t="n">
-        <v>-3.267927927928006</v>
+        <v>9.941131131131367</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.305365365365467</v>
+        <v>35.74135135135219</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1494641433816739</v>
+        <v>0.00240529772163478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1494641433816739</v>
+        <v>0.00240529772163478</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>23.20338036670267</v>
+        <v>44.27762593337823</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.360287888647498, 50.76704862205284]</t>
+          <t>[16.162380232430152, 72.39287163432631]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.09689147898662642</v>
+        <v>0.002727161107395126</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09689147898662642</v>
+        <v>0.002727161107395126</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01257894956392303</v>
+        <v>-0.1006315965113851</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.616395018964118, 1.591237119836272]</t>
+          <t>[-0.8868159442565791, 0.6855527512338089]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9874662616607934</v>
+        <v>0.797732587281188</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9874662616607934</v>
+        <v>0.797732587281188</v>
       </c>
       <c r="T6" t="n">
-        <v>66.28589228571191</v>
+        <v>68.79235276913758</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.22671118692497, 82.34507338449885]</t>
+          <t>[52.293347354103986, 85.29135818417117]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.211244438081849e-10</v>
+        <v>9.154810243217071e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.211244438081849e-10</v>
+        <v>9.154810243217071e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>0.05187187187187092</v>
+        <v>0.4152952952953086</v>
       </c>
       <c r="Y6" t="n">
-        <v>-6.561791791791951</v>
+        <v>-2.829199199199265</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.665535535535692</v>
+        <v>3.659789789789882</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.563083680439675e-07</v>
+        <v>0.001753855194150722</v>
       </c>
       <c r="I7" t="n">
-        <v>7.563083680439675e-07</v>
+        <v>0.001753855194150722</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>54.40170665746451</v>
+        <v>31.74714723997707</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[30.09308756881427, 78.71032574611475]</t>
+          <t>[8.9566367776916, 54.537657702262536]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.64602129783831e-05</v>
+        <v>0.007392095182985337</v>
       </c>
       <c r="O7" t="n">
-        <v>4.64602129783831e-05</v>
+        <v>0.007392095182985337</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.7170001251436169</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, -0.28931583997023225]</t>
+          <t>[-1.8868424345884645, -0.32705268866200043]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001521660505534594</v>
+        <v>0.006423136198238311</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001521660505534594</v>
+        <v>0.006423136198238311</v>
       </c>
       <c r="T7" t="n">
-        <v>59.57867777511596</v>
+        <v>54.81234220338561</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.95473729268238, 72.20261825754955]</t>
+          <t>[42.50454208320402, 67.1201423235672]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.484457084506175e-12</v>
+        <v>1.39819267275243e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>2.484457084506175e-12</v>
+        <v>1.39819267275243e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>2.95669669669677</v>
+        <v>4.568248248248359</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.193053053053088</v>
+        <v>1.349709709709744</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.720340340340453</v>
+        <v>7.786786786786974</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.91000000000061</v>
+        <v>25.93000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.344789919674685e-05</v>
+        <v>0.1094472287510814</v>
       </c>
       <c r="I8" t="n">
-        <v>4.344789919674685e-05</v>
+        <v>0.1094472287510814</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>41.68353717081867</v>
+        <v>23.6501464829519</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.721732440826557, 63.64534190081079]</t>
+          <t>[-6.208927200947329, 53.50922016685114]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0004029615002092424</v>
+        <v>0.1176477994793175</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0004029615002092424</v>
+        <v>0.1176477994793175</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.232737057264464</v>
+        <v>-0.8679475199106932</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.8239476867688493, -0.6415264277600778]</t>
+          <t>[-3.9497901630718517, 2.2138951232504653]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0001246363550244656</v>
+        <v>0.57337198278403</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001246363550244656</v>
+        <v>0.57337198278403</v>
       </c>
       <c r="T8" t="n">
-        <v>54.91676134383549</v>
+        <v>73.33716327077272</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.59429439011565, 67.23922829755533]</t>
+          <t>[57.225360368428284, 89.44896617311716]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.369415691954146e-11</v>
+        <v>7.356115716561362e-12</v>
       </c>
       <c r="W8" t="n">
-        <v>1.369415691954146e-11</v>
+        <v>7.356115716561362e-12</v>
       </c>
       <c r="X8" t="n">
-        <v>5.083443443443564</v>
+        <v>3.581921921922007</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.645465465465527</v>
+        <v>-9.136496496496713</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.5214214214216</v>
+        <v>16.30034034034072</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.70000000000027</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01224896922734453</v>
+        <v>0.005658909407977308</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01224896922734453</v>
+        <v>0.005658909407977308</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>35.40337015207322</v>
+        <v>35.88475048023297</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[6.610130536461057, 64.19660976768539]</t>
+          <t>[9.799820073016264, 61.96968088744967]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.01709416049090784</v>
+        <v>0.0081003933760877</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01709416049090784</v>
+        <v>0.0081003933760877</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.761052938949233</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.8428426014466197, -0.6792632764518469]</t>
+          <t>[-2.264210921506157, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.002015509661379422</v>
+        <v>0.00598746630995084</v>
       </c>
       <c r="S9" t="n">
-        <v>0.002015509661379422</v>
+        <v>0.00598746630995084</v>
       </c>
       <c r="T9" t="n">
-        <v>73.99000680886905</v>
+        <v>56.31418987834351</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[57.91883253406456, 90.06118108367355]</t>
+          <t>[41.364529040010304, 71.26385071667673]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.242473122279989e-12</v>
+        <v>1.385053405300596e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>5.242473122279989e-12</v>
+        <v>1.385053405300596e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>6.642642642642716</v>
+        <v>5.078238238238303</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.562162162162189</v>
+        <v>1.533053053053072</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.72312312312324</v>
+        <v>8.623423423423533</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.70000000000027</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01097950806201076</v>
+        <v>0.00251078221562695</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01097950806201076</v>
+        <v>0.00251078221562695</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>28.39534786848823</v>
+        <v>37.77652788060946</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[5.408960868900017, 51.38173486807645]</t>
+          <t>[9.529052695863413, 66.02400306535552]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01661483099970207</v>
+        <v>0.009898580251615163</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01661483099970207</v>
+        <v>0.009898580251615163</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.270473905956233</v>
+        <v>-0.8931054190385401</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.276789871070081, -0.2641579408423844]</t>
+          <t>[-1.572368695490388, -0.21384214258669232]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.01450573925398402</v>
+        <v>0.0111195262563677</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01450573925398402</v>
+        <v>0.0111195262563677</v>
       </c>
       <c r="T10" t="n">
-        <v>53.00946977660055</v>
+        <v>60.18544191098775</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.28933178337502, 65.72960776982609]</t>
+          <t>[45.687921926706956, 74.68296189526853]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>9.285239244150034e-11</v>
+        <v>1.032816054902241e-10</v>
       </c>
       <c r="W10" t="n">
-        <v>9.285239244150034e-11</v>
+        <v>1.032816054902241e-10</v>
       </c>
       <c r="X10" t="n">
-        <v>4.792192192192246</v>
+        <v>3.401461461461505</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.9963963963964053</v>
+        <v>0.8144344344344425</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.587987987988086</v>
+        <v>5.988488488488567</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.70000000000027</v>
+        <v>23.9300000000003</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01100957816451686</v>
+        <v>3.031808731845942e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01100957816451686</v>
+        <v>3.031808731845942e-07</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>34.52115276245787</v>
+        <v>58.81789836883252</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[8.285055604297732, 60.757249920618015]</t>
+          <t>[35.97361877733001, 81.66217796033504]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01106401991802541</v>
+        <v>4.943714664529253e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01106401991802541</v>
+        <v>4.943714664529253e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.673000292001772</v>
+        <v>-1.094368612061309</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.7296320553713125, -0.6163685286322318]</t>
+          <t>[-1.522052897234695, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.002599451648451323</v>
+        <v>5.504392231348021e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002599451648451323</v>
+        <v>5.504392231348021e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>68.74213471362916</v>
+        <v>71.53349488790924</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.277514222182525, 84.20675520507578]</t>
+          <t>[58.73141319760118, 84.33557657821731]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.476818667356383e-11</v>
+        <v>1.13242748511766e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>1.476818667356383e-11</v>
+        <v>1.13242748511766e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>6.310510510510582</v>
+        <v>4.167987987988042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.324924924924951</v>
+        <v>2.539119119119151</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.29609609609621</v>
+        <v>5.796856856856932</v>
       </c>
     </row>
   </sheetData>
